--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED5AA4-18E3-4FD8-A593-DA8DF7FBAEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F125E11-3108-41A4-97FF-21D4AE33F9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1922,6 +1922,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2272,16 +2273,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>559</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2321,1482 +2323,2370 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>1</v>
+      </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0</v>
+      </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0</v>
+      </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0</v>
+      </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0</v>
+      </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0</v>
+      </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0</v>
+      </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0</v>
+      </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0</v>
+      </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0</v>
+      </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0</v>
+      </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0</v>
+      </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0</v>
+      </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0</v>
+      </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0</v>
+      </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
       <c r="B229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0</v>
+      </c>
       <c r="B232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0</v>
+      </c>
       <c r="B235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
       <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0</v>
+      </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
       <c r="B238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0</v>
+      </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
       <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0</v>
+      </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
       <c r="B249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0</v>
+      </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
       <c r="B251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
       <c r="B252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
       <c r="B255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0</v>
+      </c>
       <c r="B257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
       <c r="B258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
       <c r="B259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
       <c r="B260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0</v>
+      </c>
       <c r="B261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
       <c r="B262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
       <c r="B263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
       <c r="B264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0</v>
+      </c>
       <c r="B265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
       <c r="B266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
       <c r="B267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0</v>
+      </c>
       <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
       <c r="B269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
       <c r="B270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
       <c r="B271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
       <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
       <c r="B273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
       <c r="B274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
       <c r="B275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
       <c r="B276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0</v>
+      </c>
       <c r="B277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
       <c r="B278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
       <c r="B279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0</v>
+      </c>
       <c r="B280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
       <c r="B281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
       <c r="B282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
       <c r="B283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
       <c r="B284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0</v>
+      </c>
       <c r="B285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0</v>
+      </c>
       <c r="B286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
       <c r="B287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
       <c r="B288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
       <c r="B289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
       <c r="B290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
       <c r="B291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
       <c r="B292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
       <c r="B293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
       <c r="B294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
       <c r="B295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1</v>
+      </c>
       <c r="B296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
       <c r="B297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
       <c r="B298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
       <c r="B299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
       <c r="B300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1</v>
+      </c>
       <c r="B301" t="s">
         <v>300</v>
       </c>
@@ -3814,12 +4704,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>559</v>
       </c>
@@ -3827,7 +4717,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3835,7 +4725,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3843,7 +4733,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3851,1272 +4741,1272 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>558</v>
       </c>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6BC0EE-56E4-4C09-9A66-0F88680E23C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48199B11-0566-475B-B108-78D17285EB08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2597,6 +2597,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2634,10 +2635,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,14 +2947,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>754</v>
       </c>
@@ -2958,2502 +2965,3720 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>3</v>
+      </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>0</v>
+      </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0</v>
+      </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0</v>
+      </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0</v>
+      </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>3</v>
+      </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>4</v>
+      </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>3</v>
+      </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>4</v>
+      </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>3</v>
+      </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>0</v>
+      </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>3</v>
+      </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>3</v>
+      </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>3</v>
+      </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2</v>
+      </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>4</v>
+      </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>4</v>
+      </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>4</v>
+      </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2</v>
+      </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>4</v>
+      </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2</v>
+      </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>3</v>
+      </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>1</v>
+      </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>4</v>
+      </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>3</v>
+      </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0</v>
+      </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>3</v>
+      </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>3</v>
+      </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>0</v>
+      </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>4</v>
+      </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>4</v>
+      </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>4</v>
+      </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2</v>
+      </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>0</v>
+      </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>4</v>
+      </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>4</v>
+      </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>4</v>
+      </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>4</v>
+      </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>3</v>
+      </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>1</v>
+      </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>3</v>
+      </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>4</v>
+      </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>0</v>
+      </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>3</v>
+      </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>4</v>
+      </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>3</v>
+      </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>4</v>
+      </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>3</v>
+      </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>4</v>
+      </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>4</v>
+      </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>2</v>
+      </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>1</v>
+      </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>3</v>
+      </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>4</v>
+      </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>0</v>
+      </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>4</v>
+      </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>0</v>
+      </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>4</v>
+      </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>4</v>
+      </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>3</v>
+      </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>2</v>
+      </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>2</v>
+      </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>1</v>
+      </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>1</v>
+      </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>2</v>
+      </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>3</v>
+      </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>3</v>
+      </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>1</v>
+      </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>4</v>
+      </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>3</v>
+      </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>3</v>
+      </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>3</v>
+      </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>4</v>
+      </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>4</v>
+      </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>3</v>
+      </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>3</v>
+      </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>4</v>
+      </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>4</v>
+      </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>3</v>
+      </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>2</v>
+      </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>2</v>
+      </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>3</v>
+      </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>3</v>
+      </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>3</v>
+      </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>1</v>
+      </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>3</v>
+      </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>4</v>
+      </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>1</v>
+      </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>4</v>
+      </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>0</v>
+      </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>4</v>
+      </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>1</v>
+      </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>3</v>
+      </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>3</v>
+      </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>3</v>
+      </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>4</v>
+      </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>1</v>
+      </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2</v>
+      </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>3</v>
+      </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>3</v>
+      </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>4</v>
+      </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>4</v>
+      </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>1</v>
+      </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>3</v>
+      </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>3</v>
+      </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>3</v>
+      </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>2</v>
+      </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>3</v>
+      </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>4</v>
+      </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>4</v>
+      </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>3</v>
+      </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>0</v>
+      </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>4</v>
+      </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>3</v>
+      </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>0</v>
+      </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>4</v>
+      </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>3</v>
+      </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>4</v>
+      </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>2</v>
+      </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>2</v>
+      </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>1</v>
+      </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>3</v>
+      </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>4</v>
+      </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>4</v>
+      </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>4</v>
+      </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>4</v>
+      </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>2</v>
+      </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>1</v>
+      </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>2</v>
+      </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>3</v>
+      </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>1</v>
+      </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>0</v>
+      </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>4</v>
+      </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>4</v>
+      </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>2</v>
+      </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>3</v>
+      </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>2</v>
+      </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>1</v>
+      </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>3</v>
+      </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>2</v>
+      </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>0</v>
+      </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>2</v>
+      </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>3</v>
+      </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>0</v>
+      </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>1</v>
+      </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>1</v>
+      </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>1</v>
+      </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>2</v>
+      </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>0</v>
+      </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>2</v>
+      </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>4</v>
+      </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>3</v>
+      </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>3</v>
+      </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>2</v>
+      </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>0</v>
+      </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>4</v>
+      </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>3</v>
+      </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>2</v>
+      </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>1</v>
+      </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>1</v>
+      </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>3</v>
+      </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>4</v>
+      </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>4</v>
+      </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>3</v>
+      </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>1</v>
+      </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>4</v>
+      </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>4</v>
+      </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>0</v>
+      </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>0</v>
+      </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>3</v>
+      </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>3</v>
+      </c>
       <c r="B229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>4</v>
+      </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>3</v>
+      </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>3</v>
+      </c>
       <c r="B232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>4</v>
+      </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>4</v>
+      </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>3</v>
+      </c>
       <c r="B235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>1</v>
+      </c>
       <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>3</v>
+      </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>3</v>
+      </c>
       <c r="B238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>2</v>
+      </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>4</v>
+      </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>1</v>
+      </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>0</v>
+      </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>3</v>
+      </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>3</v>
+      </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>4</v>
+      </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>4</v>
+      </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>3</v>
+      </c>
       <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>4</v>
+      </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>2</v>
+      </c>
       <c r="B249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>2</v>
+      </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>4</v>
+      </c>
       <c r="B251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>2</v>
+      </c>
       <c r="B252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>2</v>
+      </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>0</v>
+      </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>3</v>
+      </c>
       <c r="B255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>4</v>
+      </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>0</v>
+      </c>
       <c r="B257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>2</v>
+      </c>
       <c r="B258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>2</v>
+      </c>
       <c r="B259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>1</v>
+      </c>
       <c r="B260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>3</v>
+      </c>
       <c r="B261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>3</v>
+      </c>
       <c r="B262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>1</v>
+      </c>
       <c r="B263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>2</v>
+      </c>
       <c r="B264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>1</v>
+      </c>
       <c r="B265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>1</v>
+      </c>
       <c r="B266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>3</v>
+      </c>
       <c r="B267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>3</v>
+      </c>
       <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>2</v>
+      </c>
       <c r="B269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>4</v>
+      </c>
       <c r="B270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>4</v>
+      </c>
       <c r="B271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>3</v>
+      </c>
       <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>4</v>
+      </c>
       <c r="B273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>4</v>
+      </c>
       <c r="B274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>4</v>
+      </c>
       <c r="B275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>3</v>
+      </c>
       <c r="B276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>2</v>
+      </c>
       <c r="B277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>3</v>
+      </c>
       <c r="B278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>1</v>
+      </c>
       <c r="B279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>4</v>
+      </c>
       <c r="B280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>2</v>
+      </c>
       <c r="B281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>2</v>
+      </c>
       <c r="B282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>1</v>
+      </c>
       <c r="B283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>3</v>
+      </c>
       <c r="B284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>3</v>
+      </c>
       <c r="B285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>4</v>
+      </c>
       <c r="B286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>0</v>
+      </c>
       <c r="B287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>2</v>
+      </c>
       <c r="B288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>3</v>
+      </c>
       <c r="B289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>2</v>
+      </c>
       <c r="B290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>0</v>
+      </c>
       <c r="B291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>3</v>
+      </c>
       <c r="B292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>3</v>
+      </c>
       <c r="B293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>3</v>
+      </c>
       <c r="B294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>1</v>
+      </c>
       <c r="B295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>3</v>
+      </c>
       <c r="B296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>4</v>
+      </c>
       <c r="B297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>2</v>
+      </c>
       <c r="B298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>1</v>
+      </c>
       <c r="B299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>4</v>
+      </c>
       <c r="B300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>2</v>
+      </c>
       <c r="B301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>3</v>
+      </c>
       <c r="B302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>4</v>
+      </c>
       <c r="B303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>4</v>
+      </c>
       <c r="B304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>3</v>
+      </c>
       <c r="B305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>2</v>
+      </c>
       <c r="B306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>2</v>
+      </c>
       <c r="B307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>3</v>
+      </c>
       <c r="B308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>0</v>
+      </c>
       <c r="B309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>2</v>
+      </c>
       <c r="B310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>1</v>
+      </c>
       <c r="B311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>4</v>
+      </c>
       <c r="B312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>3</v>
+      </c>
       <c r="B313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>3</v>
+      </c>
       <c r="B314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>2</v>
+      </c>
       <c r="B315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>4</v>
+      </c>
       <c r="B316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>0</v>
+      </c>
       <c r="B317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>4</v>
+      </c>
       <c r="B318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>3</v>
+      </c>
       <c r="B319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>4</v>
+      </c>
       <c r="B320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>3</v>
+      </c>
       <c r="B321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>3</v>
+      </c>
       <c r="B322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>4</v>
+      </c>
       <c r="B323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>4</v>
+      </c>
       <c r="B324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>3</v>
+      </c>
       <c r="B325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>2</v>
+      </c>
       <c r="B326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>4</v>
+      </c>
       <c r="B327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>3</v>
+      </c>
       <c r="B328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>3</v>
+      </c>
       <c r="B329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>2</v>
+      </c>
       <c r="B330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>2</v>
+      </c>
       <c r="B331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>4</v>
+      </c>
       <c r="B332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>4</v>
+      </c>
       <c r="B333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>4</v>
+      </c>
       <c r="B334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>2</v>
+      </c>
       <c r="B335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>3</v>
+      </c>
       <c r="B336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>1</v>
+      </c>
       <c r="B337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>4</v>
+      </c>
       <c r="B338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>2</v>
+      </c>
       <c r="B339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>1</v>
+      </c>
       <c r="B340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>2</v>
+      </c>
       <c r="B341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>0</v>
+      </c>
       <c r="B342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>4</v>
+      </c>
       <c r="B343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>3</v>
+      </c>
       <c r="B344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>0</v>
+      </c>
       <c r="B345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>0</v>
+      </c>
       <c r="B346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>2</v>
+      </c>
       <c r="B347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>2</v>
+      </c>
       <c r="B348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>0</v>
+      </c>
       <c r="B349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>1</v>
+      </c>
       <c r="B350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>1</v>
+      </c>
       <c r="B351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>1</v>
+      </c>
       <c r="B352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>0</v>
+      </c>
       <c r="B353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>2</v>
+      </c>
       <c r="B354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>2</v>
+      </c>
       <c r="B355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>2</v>
+      </c>
       <c r="B356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>4</v>
+      </c>
       <c r="B357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>0</v>
+      </c>
       <c r="B358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>3</v>
+      </c>
       <c r="B359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>3</v>
+      </c>
       <c r="B360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
       <c r="B361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
       <c r="B362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
       <c r="B363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
       <c r="B364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
       <c r="B365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
       <c r="B366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
       <c r="B367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
       <c r="B368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
       <c r="B369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
       <c r="B370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
       <c r="B371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
       <c r="B372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
       <c r="B373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
       <c r="B374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
       <c r="B375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
       <c r="B376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
       <c r="B377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
       <c r="B378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
       <c r="B379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
       <c r="B380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
       <c r="B381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
       <c r="B382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
       <c r="B383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
       <c r="B384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
       <c r="B385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
       <c r="B386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
       <c r="B387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
       <c r="B388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
       <c r="B389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
       <c r="B390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
       <c r="B391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
       <c r="B392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
       <c r="B393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
       <c r="B394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
       <c r="B395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
       <c r="B396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
       <c r="B397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
       <c r="B398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
       <c r="B399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
       <c r="B400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
       <c r="B401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
       <c r="B402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
       <c r="B403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
       <c r="B404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
       <c r="B405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
       <c r="B406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
       <c r="B407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
       <c r="B408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
       <c r="B409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
       <c r="B410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
       <c r="B411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
       <c r="B412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
       <c r="B413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
       <c r="B414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
       <c r="B415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
       <c r="B416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
       <c r="B417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
       <c r="B418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
       <c r="B419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
       <c r="B420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="2"/>
       <c r="B421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2"/>
       <c r="B422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="2"/>
       <c r="B423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="2"/>
       <c r="B424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
       <c r="B425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
       <c r="B426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2"/>
       <c r="B427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2"/>
       <c r="B428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
       <c r="B429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
       <c r="B430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
       <c r="B431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2"/>
       <c r="B432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2"/>
       <c r="B433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2"/>
       <c r="B434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2"/>
       <c r="B435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2"/>
       <c r="B436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2"/>
       <c r="B437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2"/>
       <c r="B438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
       <c r="B439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2"/>
       <c r="B440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2"/>
       <c r="B441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2"/>
       <c r="B442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2"/>
       <c r="B443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2"/>
       <c r="B444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
       <c r="B445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
       <c r="B446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
       <c r="B447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="2"/>
       <c r="B448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2"/>
       <c r="B449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
       <c r="B450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
       <c r="B451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="2"/>
       <c r="B452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
       <c r="B453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
       <c r="B454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
       <c r="B455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2"/>
       <c r="B456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="2"/>
       <c r="B457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="2"/>
       <c r="B458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="2"/>
       <c r="B459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2"/>
       <c r="B460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
       <c r="B461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="2"/>
       <c r="B462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="2"/>
       <c r="B463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="2"/>
       <c r="B464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="2"/>
       <c r="B465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="2"/>
       <c r="B466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="2"/>
       <c r="B467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
       <c r="B468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="2"/>
       <c r="B469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="2"/>
       <c r="B470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
       <c r="B471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
       <c r="B472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
       <c r="B473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
       <c r="B474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
       <c r="B475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
       <c r="B476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
       <c r="B477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
       <c r="B478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
       <c r="B479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
       <c r="B480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
       <c r="B481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
       <c r="B482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="2"/>
       <c r="B483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="2"/>
       <c r="B484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="2"/>
       <c r="B485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="2"/>
       <c r="B486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
       <c r="B487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
       <c r="B488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
       <c r="B489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
       <c r="B490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
       <c r="B491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
       <c r="B492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
       <c r="B493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
       <c r="B494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
       <c r="B495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
       <c r="B496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
       <c r="B497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
       <c r="B498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
       <c r="B499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
       <c r="B500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
       <c r="B501" t="s">
         <v>500</v>
       </c>
@@ -5467,16 +6692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>754</v>
       </c>
@@ -5484,1262 +6709,1262 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>753</v>
       </c>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A51790-826E-410C-82B4-4BFD0F82CDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1294EE4F-54C1-407F-AC63-4728E7A42918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2597,6 +2597,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2640,13 +2641,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2952,13 +2956,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2966,3579 +2974,4002 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>0</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>0</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>0</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>0</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>0</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>0</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>1</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>1</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>2</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>2</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>0</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>2</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>2</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>2</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>1</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>2</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>2</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>2</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>2</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>2</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>0</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>2</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>2</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>0</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>2</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>2</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>2</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>2</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>2</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>2</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>2</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>2</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>1</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>0</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>2</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>2</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>0</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>2</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>0</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>2</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>2</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>2</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>1</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>1</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>0</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>0</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>1</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>2</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>2</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>2</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>2</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>2</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>2</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>2</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>2</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>2</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>2</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>2</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>2</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>2</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>1</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>1</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>2</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>2</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>2</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>0</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>2</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>2</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>2</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>0</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>2</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>0</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>2</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>2</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>2</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>2</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>0</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>1</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>2</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
         <v>2</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>2</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
         <v>2</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
         <v>0</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>2</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>2</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
         <v>2</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
         <v>1</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
         <v>2</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
         <v>2</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
         <v>2</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
         <v>2</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>0</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
         <v>2</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
         <v>2</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
         <v>0</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
         <v>2</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
         <v>2</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
         <v>2</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>1</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
         <v>1</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
         <v>0</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>2</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
         <v>2</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>2</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>2</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
         <v>2</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>1</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
         <v>0</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
         <v>1</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
         <v>2</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
         <v>0</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
         <v>0</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
         <v>2</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
         <v>2</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
         <v>1</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
         <v>2</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
         <v>1</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>0</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
         <v>2</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
         <v>1</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
         <v>0</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
         <v>1</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
         <v>2</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
         <v>0</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>0</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>0</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>0</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
         <v>1</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
         <v>0</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>1</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>2</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
         <v>2</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
         <v>2</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
         <v>1</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
         <v>0</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
         <v>2</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
         <v>2</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
         <v>1</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
         <v>0</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
         <v>0</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
         <v>2</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
         <v>2</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
         <v>2</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>2</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>0</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
         <v>2</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
         <v>2</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
         <v>0</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>0</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>2</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
         <v>2</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
         <v>2</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
         <v>2</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>2</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>2</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
         <v>2</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>2</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
         <v>0</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
         <v>2</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
         <v>2</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
         <v>1</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
         <v>2</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
         <v>0</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
         <v>0</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
         <v>2</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
         <v>2</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
         <v>2</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
         <v>2</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>2</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
         <v>2</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
         <v>1</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
         <v>1</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <v>2</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
         <v>1</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <v>1</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
         <v>0</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
         <v>2</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <v>2</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
         <v>0</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
         <v>1</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
         <v>1</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <v>0</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>2</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
         <v>2</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
         <v>0</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <v>1</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>0</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <v>0</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <v>2</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
         <v>2</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
         <v>1</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <v>2</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>2</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <v>2</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
         <v>2</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
         <v>2</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
         <v>2</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
         <v>2</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
         <v>1</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
         <v>2</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
         <v>0</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
         <v>2</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
         <v>1</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
         <v>1</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
         <v>0</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
         <v>2</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
         <v>2</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
         <v>2</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
         <v>0</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
         <v>1</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
         <v>2</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
         <v>1</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
         <v>0</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
         <v>2</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
         <v>2</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
         <v>2</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
         <v>0</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
         <v>2</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
         <v>2</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
         <v>1</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
         <v>0</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
         <v>2</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
         <v>1</v>
       </c>
       <c r="B301" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
         <v>2</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
         <v>2</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
         <v>2</v>
       </c>
       <c r="B304" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
         <v>2</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
         <v>1</v>
       </c>
       <c r="B306" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
         <v>1</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
         <v>2</v>
       </c>
       <c r="B308" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
         <v>0</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
         <v>1</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
         <v>0</v>
       </c>
       <c r="B311" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
         <v>2</v>
       </c>
       <c r="B312" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
         <v>2</v>
       </c>
       <c r="B313" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
         <v>2</v>
       </c>
       <c r="B314" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
         <v>1</v>
       </c>
       <c r="B315" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
         <v>2</v>
       </c>
       <c r="B316" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
         <v>0</v>
       </c>
       <c r="B317" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
         <v>2</v>
       </c>
       <c r="B318" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
         <v>2</v>
       </c>
       <c r="B319" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
         <v>2</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
         <v>2</v>
       </c>
       <c r="B321" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
         <v>2</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
         <v>2</v>
       </c>
       <c r="B323" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
         <v>2</v>
       </c>
       <c r="B324" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
         <v>2</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
         <v>1</v>
       </c>
       <c r="B326" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
         <v>2</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
         <v>2</v>
       </c>
       <c r="B328" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
         <v>2</v>
       </c>
       <c r="B329" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
         <v>1</v>
       </c>
       <c r="B330" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
         <v>1</v>
       </c>
       <c r="B331" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
         <v>2</v>
       </c>
       <c r="B332" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
         <v>2</v>
       </c>
       <c r="B333" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
         <v>2</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
         <v>1</v>
       </c>
       <c r="B335" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
         <v>2</v>
       </c>
       <c r="B336" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>0</v>
       </c>
       <c r="B337" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
         <v>2</v>
       </c>
       <c r="B338" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
         <v>1</v>
       </c>
       <c r="B339" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
         <v>0</v>
       </c>
       <c r="B340" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
         <v>1</v>
       </c>
       <c r="B341" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
         <v>0</v>
       </c>
       <c r="B342" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
         <v>2</v>
       </c>
       <c r="B343" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
         <v>2</v>
       </c>
       <c r="B344" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
         <v>0</v>
       </c>
       <c r="B345" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
         <v>0</v>
       </c>
       <c r="B346" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
         <v>1</v>
       </c>
       <c r="B347" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
         <v>1</v>
       </c>
       <c r="B348" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
         <v>0</v>
       </c>
       <c r="B349" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
         <v>0</v>
       </c>
       <c r="B350" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
         <v>0</v>
       </c>
       <c r="B351" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
         <v>0</v>
       </c>
       <c r="B352" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>0</v>
       </c>
       <c r="B353" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
         <v>1</v>
       </c>
       <c r="B354" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
         <v>1</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
         <v>1</v>
       </c>
       <c r="B356" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
         <v>2</v>
       </c>
       <c r="B357" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
         <v>0</v>
       </c>
       <c r="B358" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
         <v>2</v>
       </c>
       <c r="B359" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
         <v>2</v>
       </c>
       <c r="B360" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>1</v>
+      </c>
       <c r="B361" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>0</v>
+      </c>
       <c r="B362" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>2</v>
+      </c>
       <c r="B363" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>1</v>
+      </c>
       <c r="B364" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>2</v>
+      </c>
       <c r="B365" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>2</v>
+      </c>
       <c r="B366" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>0</v>
+      </c>
       <c r="B367" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>1</v>
+      </c>
       <c r="B368" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>2</v>
+      </c>
       <c r="B369" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>0</v>
+      </c>
       <c r="B370" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>0</v>
+      </c>
       <c r="B371" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>1</v>
+      </c>
       <c r="B372" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>2</v>
+      </c>
       <c r="B373" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>1</v>
+      </c>
       <c r="B374" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>0</v>
+      </c>
       <c r="B375" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>1</v>
+      </c>
       <c r="B376" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>2</v>
+      </c>
       <c r="B377" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>1</v>
+      </c>
       <c r="B378" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>1</v>
+      </c>
       <c r="B379" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>0</v>
+      </c>
       <c r="B380" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>1</v>
+      </c>
       <c r="B381" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>2</v>
+      </c>
       <c r="B382" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>2</v>
+      </c>
       <c r="B383" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>1</v>
+      </c>
       <c r="B384" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>1</v>
+      </c>
       <c r="B385" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>2</v>
+      </c>
       <c r="B386" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>2</v>
+      </c>
       <c r="B387" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>1</v>
+      </c>
       <c r="B388" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>0</v>
+      </c>
       <c r="B389" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>0</v>
+      </c>
       <c r="B390" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>0</v>
+      </c>
       <c r="B391" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>0</v>
+      </c>
       <c r="B392" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>1</v>
+      </c>
       <c r="B393" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>2</v>
+      </c>
       <c r="B394" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>1</v>
+      </c>
       <c r="B395" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>2</v>
+      </c>
       <c r="B396" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>1</v>
+      </c>
       <c r="B397" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>1</v>
+      </c>
       <c r="B398" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>2</v>
+      </c>
       <c r="B399" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>0</v>
+      </c>
       <c r="B400" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>2</v>
+      </c>
       <c r="B401" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>1</v>
+      </c>
       <c r="B402" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>0</v>
+      </c>
       <c r="B403" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>0</v>
+      </c>
       <c r="B404" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>1</v>
+      </c>
       <c r="B405" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>1</v>
+      </c>
       <c r="B406" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>2</v>
+      </c>
       <c r="B407" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>0</v>
+      </c>
       <c r="B408" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>2</v>
+      </c>
       <c r="B409" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>2</v>
+      </c>
       <c r="B410" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>1</v>
+      </c>
       <c r="B411" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>2</v>
+      </c>
       <c r="B412" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>1</v>
+      </c>
       <c r="B413" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>0</v>
+      </c>
       <c r="B414" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>2</v>
+      </c>
       <c r="B415" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>0</v>
+      </c>
       <c r="B416" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>2</v>
+      </c>
       <c r="B417" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>2</v>
+      </c>
       <c r="B418" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>1</v>
+      </c>
       <c r="B419" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>1</v>
+      </c>
       <c r="B420" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>1</v>
+      </c>
       <c r="B421" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>1</v>
+      </c>
       <c r="B422" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>2</v>
+      </c>
       <c r="B423" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>1</v>
+      </c>
       <c r="B424" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>2</v>
+      </c>
       <c r="B425" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>2</v>
+      </c>
       <c r="B426" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>1</v>
+      </c>
       <c r="B427" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>1</v>
+      </c>
       <c r="B428" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>0</v>
+      </c>
       <c r="B429" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>1</v>
+      </c>
       <c r="B430" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>1</v>
+      </c>
       <c r="B431" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>2</v>
+      </c>
       <c r="B432" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>0</v>
+      </c>
       <c r="B433" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>1</v>
+      </c>
       <c r="B434" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>1</v>
+      </c>
       <c r="B435" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>1</v>
+      </c>
       <c r="B436" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>2</v>
+      </c>
       <c r="B437" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>1</v>
+      </c>
       <c r="B438" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>0</v>
+      </c>
       <c r="B439" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>2</v>
+      </c>
       <c r="B440" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>1</v>
+      </c>
       <c r="B441" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>1</v>
+      </c>
       <c r="B442" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>2</v>
+      </c>
       <c r="B443" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>1</v>
+      </c>
       <c r="B444" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>1</v>
+      </c>
       <c r="B445" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>2</v>
+      </c>
       <c r="B446" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>2</v>
+      </c>
       <c r="B447" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>0</v>
+      </c>
       <c r="B448" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>2</v>
+      </c>
       <c r="B449" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>0</v>
+      </c>
       <c r="B450" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>2</v>
+      </c>
       <c r="B451" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>1</v>
+      </c>
       <c r="B452" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>2</v>
+      </c>
       <c r="B453" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>2</v>
+      </c>
       <c r="B454" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>2</v>
+      </c>
       <c r="B455" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>1</v>
+      </c>
       <c r="B456" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>0</v>
+      </c>
       <c r="B457" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>0</v>
+      </c>
       <c r="B458" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>0</v>
+      </c>
       <c r="B459" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>0</v>
+      </c>
       <c r="B460" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>2</v>
+      </c>
       <c r="B461" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>2</v>
+      </c>
       <c r="B462" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>2</v>
+      </c>
       <c r="B463" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>1</v>
+      </c>
       <c r="B464" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>1</v>
+      </c>
       <c r="B465" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>2</v>
+      </c>
       <c r="B466" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>2</v>
+      </c>
       <c r="B467" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>2</v>
+      </c>
       <c r="B468" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>0</v>
+      </c>
       <c r="B469" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>2</v>
+      </c>
       <c r="B470" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>0</v>
+      </c>
       <c r="B471" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>2</v>
+      </c>
       <c r="B472" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>0</v>
+      </c>
       <c r="B473" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>2</v>
+      </c>
       <c r="B474" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>1</v>
+      </c>
       <c r="B475" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>2</v>
+      </c>
       <c r="B476" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>2</v>
+      </c>
       <c r="B477" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>1</v>
+      </c>
       <c r="B478" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>2</v>
+      </c>
       <c r="B479" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>2</v>
+      </c>
       <c r="B480" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>2</v>
+      </c>
       <c r="B481" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>1</v>
+      </c>
       <c r="B482" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>1</v>
+      </c>
       <c r="B483" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>1</v>
+      </c>
       <c r="B484" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>2</v>
+      </c>
       <c r="B485" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>2</v>
+      </c>
       <c r="B486" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>1</v>
+      </c>
       <c r="B487" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>2</v>
+      </c>
       <c r="B488" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>0</v>
+      </c>
       <c r="B489" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>2</v>
+      </c>
       <c r="B490" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>1</v>
+      </c>
       <c r="B491" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>2</v>
+      </c>
       <c r="B492" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>2</v>
+      </c>
       <c r="B493" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>0</v>
+      </c>
       <c r="B494" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>1</v>
+      </c>
       <c r="B495" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>1</v>
+      </c>
       <c r="B496" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>1</v>
+      </c>
       <c r="B497" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>1</v>
+      </c>
       <c r="B498" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>2</v>
+      </c>
       <c r="B499" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>0</v>
+      </c>
       <c r="B500" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>1</v>
+      </c>
       <c r="B501" t="s">
         <v>501</v>
       </c>
@@ -6552,16 +6983,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6569,1262 +7000,1262 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>754</v>
       </c>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1294EE4F-54C1-407F-AC63-4728E7A42918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8428CF-CD97-4911-9668-8370A70658C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="756">
   <si>
     <t>Classificação</t>
   </si>
@@ -2579,6 +2579,9 @@
 quero cancelar
 nao aguento mais.. quero cancelar
 quero cancelar... cancelar... cancelar...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2956,17 +2959,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A493" workbookViewId="0">
       <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -3446,7 +3449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>0</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>2</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>0</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>2</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>0</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>0</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>0</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>0</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>2</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>2</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>2</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>2</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>2</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>2</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>2</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>2</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>0</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>2</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>0</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>2</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>0</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>2</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>0</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>2</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>2</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>0</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>2</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>2</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>0</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>2</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>2</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>2</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>2</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>0</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>2</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>0</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>2</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>0</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>2</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>2</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>2</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>2</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>2</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>0</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>0</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>0</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>2</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>2</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>2</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>0</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>0</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>2</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>0</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>0</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>0</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>0</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>0</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>2</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>2</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>0</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>0</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>0</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>2</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>0</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>0</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>0</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>2</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>2</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>2</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>2</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>2</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>0</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>2</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>0</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>0</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>2</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>2</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>2</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>2</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>2</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>2</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>0</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>2</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>2</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>0</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>1</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>0</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>2</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>2</v>
       </c>
@@ -5062,7 +5065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>0</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>1</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>0</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>0</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>2</v>
       </c>
@@ -5102,7 +5105,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>1</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>2</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>2</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>2</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>2</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>2</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>1</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>2</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>0</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>2</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>1</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>1</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>0</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>2</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>2</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>0</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>1</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>2</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>1</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>0</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>2</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>2</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>0</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>2</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>1</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>0</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>2</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>1</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>2</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>2</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>2</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>1</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>1</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>2</v>
       </c>
@@ -5430,7 +5433,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>0</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>1</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>0</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>2</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>2</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>1</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>0</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>2</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>2</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>2</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>2</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>2</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>2</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>2</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>2</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>1</v>
       </c>
@@ -5574,7 +5577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>2</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>2</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>2</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>1</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>1</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>2</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>2</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>2</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>1</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>2</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>0</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>2</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>1</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>0</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>1</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>0</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>2</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>2</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>0</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>0</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>1</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>1</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>0</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>0</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>0</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>0</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>0</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>1</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>1</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>1</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>2</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>0</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>2</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>2</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>1</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>0</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>2</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>1</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>2</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>2</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>0</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>1</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>2</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>0</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>0</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>1</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>2</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>1</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>0</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>1</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>2</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>1</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>1</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>0</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>1</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>2</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>2</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>1</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>1</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>2</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>2</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>1</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>0</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>0</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>0</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>0</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>1</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>2</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>1</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>2</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>1</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>1</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>2</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>0</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>2</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>1</v>
       </c>
@@ -6182,7 +6185,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>0</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>0</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>1</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>1</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>2</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>0</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>2</v>
       </c>
@@ -6238,7 +6241,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>2</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>1</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>2</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>1</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>0</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>2</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>0</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>2</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>2</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>1</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>1</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>1</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>1</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>2</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>1</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>2</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>2</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>1</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>1</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>0</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>1</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>1</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>2</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>0</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>1</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>1</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>1</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>2</v>
       </c>
@@ -6462,7 +6465,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>1</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>0</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>2</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>1</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>1</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>2</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>1</v>
       </c>
@@ -6518,7 +6521,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>1</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>2</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>2</v>
       </c>
@@ -6542,7 +6545,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>0</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>2</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>0</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>2</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>1</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>2</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>2</v>
       </c>
@@ -6598,7 +6601,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>2</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>1</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>0</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>0</v>
       </c>
@@ -6630,7 +6633,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>0</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>0</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>2</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>2</v>
       </c>
@@ -6662,7 +6665,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>2</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>1</v>
       </c>
@@ -6678,7 +6681,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>1</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>2</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>2</v>
       </c>
@@ -6702,7 +6705,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>2</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>0</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>2</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>0</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>2</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>0</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>2</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>1</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>2</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>2</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>1</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>2</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>2</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>2</v>
       </c>
@@ -6814,7 +6817,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>1</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>1</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>1</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>2</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>2</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>1</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>2</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>0</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>2</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>1</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>2</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>2</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>0</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>1</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>1</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>1</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>1</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>2</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>0</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>1</v>
       </c>
@@ -6983,16 +6986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D264" sqref="D264"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7000,1262 +7003,1487 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="B11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
       <c r="B12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
       <c r="B13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
       <c r="B15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
       <c r="B16" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
       <c r="B17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
       <c r="B18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
       <c r="B19" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
       <c r="B20" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
       <c r="B21" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
       <c r="B25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
       <c r="B26" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
       <c r="B27" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
       <c r="B28" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
       <c r="B29" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
       <c r="B31" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
       <c r="B32" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
       <c r="B34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
       <c r="B35" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
       <c r="B36" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
       <c r="B37" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
       <c r="B38" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
       <c r="B39" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
       <c r="B40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
       <c r="B41" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
       <c r="B43" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0</v>
+      </c>
       <c r="B44" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
       <c r="B45" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
       <c r="B46" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
       <c r="B47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
       <c r="B48" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
       <c r="B49" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
       <c r="B50" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
       <c r="B51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
       <c r="B52" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
       <c r="B53" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
       <c r="B54" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
       <c r="B55" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
       <c r="B56" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
       <c r="B57" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
       <c r="B58" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
       <c r="B59" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
       <c r="B60" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
       <c r="B61" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
       <c r="B62" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
       <c r="B63" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
       <c r="B64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
       <c r="B65" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
       <c r="B66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
       <c r="B68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
       <c r="B69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0</v>
+      </c>
       <c r="B70" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
       <c r="B71" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
       <c r="B72" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
       <c r="B73" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
       <c r="B74" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
       <c r="B75" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>755</v>
+      </c>
       <c r="B76" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>754</v>
       </c>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8428CF-CD97-4911-9668-8370A70658C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF41A8-A648-42D5-9985-A8554C9ABE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="755">
   <si>
     <t>Classificação</t>
   </si>
@@ -2579,9 +2579,6 @@
 quero cancelar
 nao aguento mais.. quero cancelar
 quero cancelar... cancelar... cancelar...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
+    <sheetView topLeftCell="A490" workbookViewId="0">
       <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
@@ -6986,8 +6983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7596,429 +7593,663 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>755</v>
+      <c r="A76">
+        <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
       <c r="B77" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
       <c r="B78" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
       <c r="B79" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
       <c r="B80" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
       <c r="B81" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0</v>
+      </c>
       <c r="B82" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
       <c r="B83" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
       <c r="B84" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
       <c r="B85" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
       <c r="B86" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
       <c r="B87" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
       <c r="B88" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
       <c r="B89" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
       <c r="B90" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0</v>
+      </c>
       <c r="B91" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
       <c r="B92" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
       <c r="B93" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
       <c r="B94" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
       <c r="B95" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
       <c r="B96" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
       <c r="B97" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1</v>
+      </c>
       <c r="B98" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
       <c r="B99" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
       <c r="B100" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0</v>
+      </c>
       <c r="B101" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
       <c r="B102" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
       <c r="B103" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
       <c r="B104" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
       <c r="B105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
       <c r="B106" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
       <c r="B107" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
       <c r="B108" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
       <c r="B109" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
       <c r="B110" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0</v>
+      </c>
       <c r="B111" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
       <c r="B112" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
+      </c>
       <c r="B113" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
       <c r="B114" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
       <c r="B115" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0</v>
+      </c>
       <c r="B116" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
       <c r="B117" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1</v>
+      </c>
       <c r="B118" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1</v>
+      </c>
       <c r="B119" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
       <c r="B120" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
       <c r="B121" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
       <c r="B122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
       <c r="B123" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0</v>
+      </c>
       <c r="B124" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1</v>
+      </c>
       <c r="B125" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0</v>
+      </c>
       <c r="B126" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
       <c r="B127" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
       <c r="B128" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
       <c r="B129" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
       <c r="B130" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1</v>
+      </c>
       <c r="B131" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
       <c r="B132" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0</v>
+      </c>
       <c r="B133" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
       <c r="B134" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0</v>
+      </c>
       <c r="B135" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0</v>
+      </c>
       <c r="B136" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
       <c r="B137" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
       <c r="B138" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
       <c r="B139" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
       <c r="B140" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0</v>
+      </c>
       <c r="B141" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
       <c r="B142" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1</v>
+      </c>
       <c r="B143" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
       <c r="B144" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
       <c r="B145" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0</v>
+      </c>
       <c r="B146" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0</v>
+      </c>
       <c r="B147" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
       <c r="B148" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
       <c r="B149" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1</v>
+      </c>
       <c r="B150" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
       <c r="B151" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1</v>
+      </c>
       <c r="B152" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
       <c r="B153" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
       <c r="B154" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>661</v>
       </c>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF41A8-A648-42D5-9985-A8554C9ABE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110CF21-6BEC-4C0C-BFC7-F9BCEAC591B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2585,7 +2585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2604,6 +2604,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2641,7 +2649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2652,6 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2960,13 +2969,13 @@
       <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2998,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -3374,7 +3383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -3558,7 +3567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -3582,7 +3591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -3598,7 +3607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -3678,7 +3687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -3774,7 +3783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>0</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>0</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>0</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -3910,7 +3919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>0</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>0</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -3950,7 +3959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -3958,7 +3967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>0</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>0</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2</v>
       </c>
@@ -4118,7 +4127,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -4126,7 +4135,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>0</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>0</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>0</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>0</v>
       </c>
@@ -4206,7 +4215,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -4238,7 +4247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>0</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>0</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>0</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>2</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>0</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>2</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>2</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>2</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2</v>
       </c>
@@ -4438,7 +4447,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>0</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -4470,7 +4479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>0</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>0</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>2</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>2</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>2</v>
       </c>
@@ -4518,7 +4527,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>0</v>
       </c>
@@ -4534,7 +4543,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4550,7 +4559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>0</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2</v>
       </c>
@@ -4574,7 +4583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>0</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>0</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>0</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>0</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>0</v>
       </c>
@@ -4622,7 +4631,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>2</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>2</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>0</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -4678,7 +4687,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>0</v>
       </c>
@@ -4702,7 +4711,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>0</v>
       </c>
@@ -4710,7 +4719,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -4742,7 +4751,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>0</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -4766,7 +4775,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>0</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>0</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>2</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -4806,7 +4815,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>2</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>2</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>0</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -4862,7 +4871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>2</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>0</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>0</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>2</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>2</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>2</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>0</v>
       </c>
@@ -4998,7 +5007,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>2</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>2</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>0</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>1</v>
       </c>
@@ -5038,7 +5047,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>0</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>0</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>1</v>
       </c>
@@ -5078,7 +5087,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>0</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>0</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>1</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>2</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>2</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2</v>
       </c>
@@ -5166,7 +5175,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>2</v>
       </c>
@@ -5174,7 +5183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>1</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>2</v>
       </c>
@@ -5190,7 +5199,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>0</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>2</v>
       </c>
@@ -5206,7 +5215,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>1</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>1</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>0</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2</v>
       </c>
@@ -5246,7 +5255,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>0</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>1</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2</v>
       </c>
@@ -5278,7 +5287,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>1</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>0</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>2</v>
       </c>
@@ -5302,7 +5311,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>2</v>
       </c>
@@ -5310,7 +5319,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>0</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>1</v>
       </c>
@@ -5350,7 +5359,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>0</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>2</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>1</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2</v>
       </c>
@@ -5390,7 +5399,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2</v>
       </c>
@@ -5398,7 +5407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>1</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>1</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>0</v>
       </c>
@@ -5438,7 +5447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>1</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>0</v>
       </c>
@@ -5454,7 +5463,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>1</v>
       </c>
@@ -5486,7 +5495,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>0</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>2</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>2</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2</v>
       </c>
@@ -5542,7 +5551,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>1</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>2</v>
       </c>
@@ -5598,7 +5607,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>1</v>
       </c>
@@ -5606,7 +5615,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>1</v>
       </c>
@@ -5614,7 +5623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>2</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>2</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>2</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>1</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>2</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>0</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>2</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>1</v>
       </c>
@@ -5678,7 +5687,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>0</v>
       </c>
@@ -5686,7 +5695,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>1</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>0</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>2</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>2</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>0</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>0</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>1</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>1</v>
       </c>
@@ -5750,7 +5759,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>0</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>0</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>0</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>0</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>0</v>
       </c>
@@ -5790,7 +5799,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>1</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>1</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>1</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>2</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>0</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>2</v>
       </c>
@@ -5838,7 +5847,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>2</v>
       </c>
@@ -5846,7 +5855,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>1</v>
       </c>
@@ -5854,7 +5863,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>0</v>
       </c>
@@ -5862,7 +5871,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>2</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>1</v>
       </c>
@@ -5878,7 +5887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>2</v>
       </c>
@@ -5886,7 +5895,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>2</v>
       </c>
@@ -5894,7 +5903,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>0</v>
       </c>
@@ -5902,7 +5911,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>1</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>2</v>
       </c>
@@ -5918,7 +5927,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>0</v>
       </c>
@@ -5926,7 +5935,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>0</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>1</v>
       </c>
@@ -5942,7 +5951,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>2</v>
       </c>
@@ -5950,7 +5959,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>1</v>
       </c>
@@ -5958,7 +5967,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>0</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>1</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>2</v>
       </c>
@@ -5982,7 +5991,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>1</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>1</v>
       </c>
@@ -5998,7 +6007,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>0</v>
       </c>
@@ -6006,7 +6015,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>1</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>2</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>2</v>
       </c>
@@ -6030,7 +6039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>1</v>
       </c>
@@ -6038,7 +6047,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>1</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>2</v>
       </c>
@@ -6054,7 +6063,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>2</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>1</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>0</v>
       </c>
@@ -6078,7 +6087,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>0</v>
       </c>
@@ -6086,7 +6095,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>0</v>
       </c>
@@ -6094,7 +6103,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>0</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>1</v>
       </c>
@@ -6110,7 +6119,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>2</v>
       </c>
@@ -6118,7 +6127,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>1</v>
       </c>
@@ -6126,7 +6135,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>2</v>
       </c>
@@ -6134,7 +6143,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>1</v>
       </c>
@@ -6142,7 +6151,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>1</v>
       </c>
@@ -6150,7 +6159,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>2</v>
       </c>
@@ -6158,7 +6167,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>0</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>2</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>1</v>
       </c>
@@ -6182,7 +6191,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>0</v>
       </c>
@@ -6190,7 +6199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>0</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>1</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>1</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>2</v>
       </c>
@@ -6222,7 +6231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>0</v>
       </c>
@@ -6230,7 +6239,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>2</v>
       </c>
@@ -6238,7 +6247,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>2</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>1</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>2</v>
       </c>
@@ -6262,7 +6271,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>1</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>0</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>2</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>0</v>
       </c>
@@ -6294,7 +6303,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>2</v>
       </c>
@@ -6302,7 +6311,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>2</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>1</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>1</v>
       </c>
@@ -6326,7 +6335,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>1</v>
       </c>
@@ -6334,7 +6343,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>1</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>2</v>
       </c>
@@ -6350,7 +6359,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>1</v>
       </c>
@@ -6358,7 +6367,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>2</v>
       </c>
@@ -6366,7 +6375,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>2</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>1</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>1</v>
       </c>
@@ -6390,7 +6399,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>0</v>
       </c>
@@ -6398,7 +6407,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>1</v>
       </c>
@@ -6406,7 +6415,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>1</v>
       </c>
@@ -6414,7 +6423,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>2</v>
       </c>
@@ -6422,7 +6431,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>0</v>
       </c>
@@ -6430,7 +6439,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>1</v>
       </c>
@@ -6438,7 +6447,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>1</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>1</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>2</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>1</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>0</v>
       </c>
@@ -6478,7 +6487,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>2</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>1</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>1</v>
       </c>
@@ -6502,7 +6511,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>2</v>
       </c>
@@ -6510,7 +6519,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>1</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>1</v>
       </c>
@@ -6526,7 +6535,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>2</v>
       </c>
@@ -6534,7 +6543,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>2</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>0</v>
       </c>
@@ -6550,7 +6559,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>2</v>
       </c>
@@ -6558,7 +6567,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>0</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>2</v>
       </c>
@@ -6574,7 +6583,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>1</v>
       </c>
@@ -6582,7 +6591,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>2</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>2</v>
       </c>
@@ -6598,7 +6607,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>2</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>1</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>0</v>
       </c>
@@ -6622,7 +6631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>0</v>
       </c>
@@ -6630,7 +6639,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>0</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>0</v>
       </c>
@@ -6646,7 +6655,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>2</v>
       </c>
@@ -6654,7 +6663,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>2</v>
       </c>
@@ -6662,7 +6671,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>2</v>
       </c>
@@ -6670,7 +6679,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>1</v>
       </c>
@@ -6678,7 +6687,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>1</v>
       </c>
@@ -6686,7 +6695,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>2</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>2</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>2</v>
       </c>
@@ -6710,7 +6719,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>0</v>
       </c>
@@ -6718,7 +6727,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>2</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>0</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>2</v>
       </c>
@@ -6742,7 +6751,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>0</v>
       </c>
@@ -6750,7 +6759,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>2</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>1</v>
       </c>
@@ -6766,7 +6775,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>2</v>
       </c>
@@ -6774,7 +6783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>2</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>1</v>
       </c>
@@ -6790,7 +6799,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>2</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>2</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>2</v>
       </c>
@@ -6814,7 +6823,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>1</v>
       </c>
@@ -6822,7 +6831,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>1</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>1</v>
       </c>
@@ -6838,7 +6847,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>2</v>
       </c>
@@ -6846,7 +6855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>2</v>
       </c>
@@ -6854,7 +6863,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>1</v>
       </c>
@@ -6862,7 +6871,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>2</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>0</v>
       </c>
@@ -6878,7 +6887,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>2</v>
       </c>
@@ -6886,7 +6895,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>1</v>
       </c>
@@ -6894,7 +6903,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>2</v>
       </c>
@@ -6902,7 +6911,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>2</v>
       </c>
@@ -6910,7 +6919,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>0</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>1</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>1</v>
       </c>
@@ -6934,7 +6943,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>1</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>1</v>
       </c>
@@ -6950,7 +6959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>2</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>0</v>
       </c>
@@ -6966,7 +6975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>1</v>
       </c>
@@ -6981,18 +6990,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7000,1724 +7009,2024 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>0</v>
       </c>
       <c r="B41" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>0</v>
       </c>
       <c r="B43" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>0</v>
       </c>
       <c r="B44" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>0</v>
       </c>
       <c r="B45" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>0</v>
       </c>
       <c r="B46" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>0</v>
       </c>
       <c r="B51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>0</v>
       </c>
       <c r="B52" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>2</v>
       </c>
       <c r="B53" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>0</v>
       </c>
       <c r="B60" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>0</v>
       </c>
       <c r="B61" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>1</v>
       </c>
       <c r="B62" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>0</v>
       </c>
       <c r="B65" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>0</v>
       </c>
       <c r="B70" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>0</v>
       </c>
       <c r="B71" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>1</v>
       </c>
       <c r="B72" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>1</v>
       </c>
       <c r="B74" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>2</v>
       </c>
       <c r="B75" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>2</v>
       </c>
       <c r="B77" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>2</v>
       </c>
       <c r="B80" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>2</v>
       </c>
       <c r="B81" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>1</v>
       </c>
       <c r="B85" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>0</v>
       </c>
       <c r="B87" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>1</v>
       </c>
       <c r="B88" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>0</v>
       </c>
       <c r="B89" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>2</v>
       </c>
       <c r="B90" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>2</v>
       </c>
       <c r="B92" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>0</v>
       </c>
       <c r="B93" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>2</v>
       </c>
       <c r="B95" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>2</v>
       </c>
       <c r="B96" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>2</v>
       </c>
       <c r="B97" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>2</v>
       </c>
       <c r="B99" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>2</v>
       </c>
       <c r="B100" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>0</v>
       </c>
       <c r="B101" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>0</v>
       </c>
       <c r="B102" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>1</v>
       </c>
       <c r="B104" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>2</v>
       </c>
       <c r="B105" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>2</v>
       </c>
       <c r="B106" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>2</v>
       </c>
       <c r="B107" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>2</v>
       </c>
       <c r="B108" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>2</v>
       </c>
       <c r="B109" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>2</v>
       </c>
       <c r="B110" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>0</v>
       </c>
       <c r="B111" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>2</v>
       </c>
       <c r="B112" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>2</v>
       </c>
       <c r="B114" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>0</v>
       </c>
       <c r="B116" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>2</v>
       </c>
       <c r="B117" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>1</v>
       </c>
       <c r="B118" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>1</v>
       </c>
       <c r="B119" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>2</v>
       </c>
       <c r="B120" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>1</v>
       </c>
       <c r="B121" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>2</v>
       </c>
       <c r="B122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>2</v>
       </c>
       <c r="B123" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>0</v>
       </c>
       <c r="B124" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>1</v>
       </c>
       <c r="B125" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>0</v>
       </c>
       <c r="B126" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>2</v>
       </c>
       <c r="B127" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>2</v>
       </c>
       <c r="B128" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>2</v>
       </c>
       <c r="B129" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>2</v>
       </c>
       <c r="B130" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>1</v>
       </c>
       <c r="B131" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>2</v>
       </c>
       <c r="B132" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>0</v>
       </c>
       <c r="B133" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>1</v>
       </c>
       <c r="B134" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>0</v>
       </c>
       <c r="B135" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>0</v>
       </c>
       <c r="B136" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>2</v>
       </c>
       <c r="B137" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>2</v>
       </c>
       <c r="B138" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>2</v>
       </c>
       <c r="B139" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
         <v>2</v>
       </c>
       <c r="B140" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
         <v>0</v>
       </c>
       <c r="B141" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
         <v>1</v>
       </c>
       <c r="B142" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
         <v>1</v>
       </c>
       <c r="B143" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>1</v>
       </c>
       <c r="B144" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>2</v>
       </c>
       <c r="B145" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>0</v>
       </c>
       <c r="B146" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
         <v>0</v>
       </c>
       <c r="B147" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
         <v>2</v>
       </c>
       <c r="B148" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>0</v>
       </c>
       <c r="B149" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
         <v>1</v>
       </c>
       <c r="B150" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>2</v>
       </c>
       <c r="B151" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>1</v>
       </c>
       <c r="B152" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>2</v>
       </c>
       <c r="B153" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>2</v>
       </c>
       <c r="B154" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>2</v>
+      </c>
       <c r="B155" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>2</v>
+      </c>
       <c r="B156" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>2</v>
+      </c>
       <c r="B157" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>2</v>
+      </c>
       <c r="B158" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>2</v>
+      </c>
       <c r="B159" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>1</v>
+      </c>
       <c r="B160" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>1</v>
+      </c>
       <c r="B161" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>2</v>
+      </c>
       <c r="B162" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>0</v>
+      </c>
       <c r="B163" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>1</v>
+      </c>
       <c r="B164" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>1</v>
+      </c>
       <c r="B165" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>1</v>
+      </c>
       <c r="B166" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>2</v>
+      </c>
       <c r="B167" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>0</v>
+      </c>
       <c r="B168" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>1</v>
+      </c>
       <c r="B169" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>2</v>
+      </c>
       <c r="B170" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>1</v>
+      </c>
       <c r="B171" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>2</v>
+      </c>
       <c r="B172" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>2</v>
+      </c>
       <c r="B173" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>0</v>
+      </c>
       <c r="B174" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>1</v>
+      </c>
       <c r="B175" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>2</v>
+      </c>
       <c r="B176" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>2</v>
+      </c>
       <c r="B177" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>2</v>
+      </c>
       <c r="B178" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>1</v>
+      </c>
       <c r="B179" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>1</v>
+      </c>
       <c r="B180" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>2</v>
+      </c>
       <c r="B181" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>1</v>
+      </c>
       <c r="B182" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>0</v>
+      </c>
       <c r="B183" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>0</v>
+      </c>
       <c r="B184" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>1</v>
+      </c>
       <c r="B185" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>2</v>
+      </c>
       <c r="B186" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>2</v>
+      </c>
       <c r="B187" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>2</v>
+      </c>
       <c r="B188" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>2</v>
+      </c>
       <c r="B189" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>1</v>
+      </c>
       <c r="B190" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>1</v>
+      </c>
       <c r="B191" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>1</v>
+      </c>
       <c r="B192" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>0</v>
+      </c>
       <c r="B193" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>0</v>
+      </c>
       <c r="B194" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>0</v>
+      </c>
       <c r="B195" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>1</v>
+      </c>
       <c r="B196" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>0</v>
+      </c>
       <c r="B197" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>0</v>
+      </c>
       <c r="B198" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>1</v>
+      </c>
       <c r="B199" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>2</v>
+      </c>
       <c r="B200" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>1</v>
+      </c>
       <c r="B201" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>0</v>
+      </c>
       <c r="B202" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>2</v>
+      </c>
       <c r="B203" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>2</v>
+      </c>
       <c r="B204" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>2</v>
+      </c>
       <c r="B205" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>2</v>
+      </c>
       <c r="B206" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>1</v>
+      </c>
       <c r="B207" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>1</v>
+      </c>
       <c r="B208" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>2</v>
+      </c>
       <c r="B209" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>1</v>
+      </c>
       <c r="B210" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>1</v>
+      </c>
       <c r="B211" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>0</v>
+      </c>
       <c r="B212" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>2</v>
+      </c>
       <c r="B213" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>2</v>
+      </c>
       <c r="B214" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>1</v>
+      </c>
       <c r="B215" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>1</v>
+      </c>
       <c r="B216" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>1</v>
+      </c>
       <c r="B217" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>1</v>
+      </c>
       <c r="B218" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>1</v>
+      </c>
       <c r="B219" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>2</v>
+      </c>
       <c r="B220" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>0</v>
+      </c>
       <c r="B221" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>2</v>
+      </c>
       <c r="B222" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>0</v>
+      </c>
       <c r="B223" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>2</v>
+      </c>
       <c r="B224" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>2</v>
+      </c>
       <c r="B225" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>0</v>
+      </c>
       <c r="B226" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>2</v>
+      </c>
       <c r="B227" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>2</v>
+      </c>
       <c r="B228" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>1</v>
+      </c>
       <c r="B229" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>2</v>
+      </c>
       <c r="B230" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>2</v>
+      </c>
       <c r="B231" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>1</v>
+      </c>
       <c r="B232" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>1</v>
+      </c>
       <c r="B233" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>1</v>
+      </c>
       <c r="B234" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>0</v>
+      </c>
       <c r="B235" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>2</v>
+      </c>
       <c r="B236" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>2</v>
+      </c>
       <c r="B237" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>2</v>
+      </c>
       <c r="B238" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>2</v>
+      </c>
       <c r="B239" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>2</v>
+      </c>
       <c r="B240" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>2</v>
+      </c>
       <c r="B241" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>2</v>
+      </c>
       <c r="B242" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>1</v>
+      </c>
       <c r="B243" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>1</v>
+      </c>
       <c r="B244" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>0</v>
+      </c>
       <c r="B245" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>2</v>
+      </c>
       <c r="B246" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>0</v>
+      </c>
       <c r="B247" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>2</v>
+      </c>
       <c r="B248" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>2</v>
+      </c>
       <c r="B249" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>0</v>
+      </c>
       <c r="B250" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>1</v>
+      </c>
       <c r="B251" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>2</v>
+      </c>
       <c r="B252" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>2</v>
+      </c>
       <c r="B253" t="s">
         <v>754</v>
       </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insper\Desktop\Insper 2020.2\Ciência dos Dados\Projeto 1\Projeto-1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110CF21-6BEC-4C0C-BFC7-F9BCEAC591B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D958C3-235D-47E8-B2AE-F3A2D74AD305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="1956" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2969,13 +2969,13 @@
       <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>2</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>2</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>0</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>2</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>0</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>0</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>0</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>0</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>0</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>0</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>2</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>0</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>2</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>0</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>2</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>0</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>0</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>0</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>2</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>2</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>2</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>2</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>2</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>2</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>2</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>2</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>0</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>2</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>0</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>2</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>0</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>2</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>0</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>2</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>2</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>0</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>2</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>2</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>0</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>2</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>2</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>2</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>2</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>0</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>2</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>0</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>2</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>0</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>2</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>2</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>2</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>2</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>2</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>0</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>0</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>0</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>2</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>2</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>0</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>0</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>2</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>0</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>0</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>0</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>0</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>0</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>2</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>2</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>0</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>0</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>0</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>2</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>0</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>0</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>0</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>2</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>2</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>2</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>2</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>2</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>0</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>2</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>0</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>0</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>2</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>2</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>2</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>2</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>2</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>2</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>1</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>1</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>1</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>0</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>2</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>2</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>0</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>1</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>1</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>0</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>2</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>2</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>0</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>1</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>0</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>0</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>2</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>1</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>2</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>2</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>2</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>2</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>2</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>1</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>2</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>0</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>2</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>1</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>1</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>0</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>2</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>2</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>0</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>1</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>2</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>1</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>0</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>2</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>2</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>0</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>2</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>1</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>0</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>2</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>1</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>2</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>2</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>2</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>1</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>1</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>2</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>0</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>1</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>0</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>2</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>1</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>0</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>2</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>2</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>2</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>2</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>2</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>2</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>2</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>2</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>1</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>2</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>2</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>2</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>1</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>1</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>2</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>2</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>2</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>1</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>2</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>0</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>2</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>1</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>0</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>1</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>0</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>2</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>0</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>0</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>1</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>1</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>0</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>0</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>0</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>0</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>0</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>1</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>1</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>1</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>2</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>0</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>2</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>2</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>1</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>0</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>2</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>1</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>2</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>2</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>0</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>1</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>2</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>0</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>0</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>1</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>2</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>1</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>0</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>1</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>2</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>1</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>1</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>0</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>1</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>2</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>2</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>1</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>1</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>2</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>2</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>1</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>0</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>0</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>0</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>0</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>1</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>2</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>1</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>2</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>1</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>1</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>0</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>2</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>1</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>0</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>0</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>1</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>1</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>2</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>0</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>2</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>2</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>1</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>2</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>1</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>0</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>2</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>0</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>2</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>2</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>1</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>1</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>1</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>1</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>2</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>1</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>2</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>2</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>1</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>1</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>0</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>1</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>1</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>2</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>0</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>1</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>1</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>1</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>2</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>1</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>0</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>2</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>1</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>1</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>2</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>1</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>1</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>2</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>2</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>0</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="3">
         <v>2</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>0</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>2</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>1</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>2</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>2</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>2</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>1</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>0</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>0</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>0</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>0</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>2</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>2</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>2</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>1</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>1</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>2</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>2</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>2</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>0</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>2</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>0</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>2</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>0</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>2</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>1</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>2</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>2</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>1</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>2</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>2</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>2</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>1</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>1</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>1</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>2</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>2</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>1</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>2</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>0</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>2</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>1</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>2</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>2</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>0</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>1</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>1</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>1</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>1</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>2</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>0</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>1</v>
       </c>
@@ -6993,15 +6993,15 @@
   <dimension ref="A1:B254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7009,23 +7009,23 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -7049,15 +7049,15 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>0</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>0</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>2</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>0</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>0</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>0</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>0</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>1</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>0</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>1</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>0</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>0</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>0</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>0</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>0</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>0</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>2</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>0</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>1</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>2</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>1</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>2</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>0</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>1</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>0</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>1</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>0</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>1</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>0</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>0</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>2</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>2</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>2</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>2</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>0</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>0</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>0</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>2</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>0</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>1</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>2</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>2</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>2</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>2</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>1</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>1</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>0</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>1</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>2</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>0</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>1</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>2</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>1</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>2</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>2</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>0</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>1</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>2</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>2</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>1</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>1</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>2</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>1</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>0</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>0</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>2</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>2</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>2</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>1</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>1</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>0</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>0</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>0</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>0</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>0</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>2</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>0</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>2</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>2</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>1</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>0</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>2</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>1</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>1</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>1</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>2</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>0</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>0</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>2</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>0</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>2</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>2</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>1</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>1</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>1</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>1</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>0</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>2</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>2</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>2</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>2</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>2</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>1</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>1</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>0</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>2</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>0</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>2</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>2</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>0</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>1</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>2</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>2</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
     </row>
   </sheetData>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D958C3-235D-47E8-B2AE-F3A2D74AD305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3E550-C04D-473C-9338-7108DA0DFDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="1956" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="984" windowWidth="17280" windowHeight="11148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6992,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>505</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>512</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>518</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B250" t="s">
         <v>751</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251" t="s">
         <v>752</v>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B3E550-C04D-473C-9338-7108DA0DFDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35049F99-293A-4C8E-903E-83D90F5A00B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="984" windowWidth="17280" windowHeight="11148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6992,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>503</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>505</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>514</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>515</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>531</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>534</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>540</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>542</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>559</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>566</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
         <v>572</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>573</v>
@@ -7691,7 +7691,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
         <v>588</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
         <v>592</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
         <v>731</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
         <v>734</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
         <v>736</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B244" t="s">
         <v>745</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B245" t="s">
         <v>746</v>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35049F99-293A-4C8E-903E-83D90F5A00B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F529482-2909-45E4-B05D-2D654B011E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
@@ -6992,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5362C36-A6BD-4474-811E-408B51E70798}">
   <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
         <v>661</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="s">
         <v>688</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
         <v>691</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
         <v>694</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B197" t="s">
         <v>698</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B199" t="s">
         <v>700</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208" t="s">
         <v>709</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B210" t="s">
         <v>711</v>
@@ -8683,7 +8683,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B211" t="s">
         <v>712</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B215" t="s">
         <v>716</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216" t="s">
         <v>717</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" t="s">
         <v>720</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B223" t="s">
         <v>724</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
         <v>729</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B232" t="s">
         <v>733</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B235" t="s">
         <v>736</v>

--- a/skybrasil.xlsx
+++ b/skybrasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieir\Desktop\Insper\2° Semestre\CIÊNCIA DOS DADOS\Projeto 1\Projeto-1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F529482-2909-45E4-B05D-2D654B011E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9403116C-96F6-4D49-8A7E-43FF9E1DA946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2965,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
